--- a/fp_groth_out.xlsx
+++ b/fp_groth_out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>antecedent</t>
   </si>
@@ -46,28 +46,121 @@
     <t>improvement</t>
   </si>
   <si>
+    <t>profit_associated</t>
+  </si>
+  <si>
+    <t>perc_of_total_profit</t>
+  </si>
+  <si>
+    <t>profit_associated_prev</t>
+  </si>
+  <si>
+    <t>net_change</t>
+  </si>
+  <si>
+    <t>profit_last_item</t>
+  </si>
+  <si>
+    <t>loss_by_change</t>
+  </si>
+  <si>
+    <t>['5814516']</t>
+  </si>
+  <si>
+    <t>['5751422']</t>
+  </si>
+  <si>
+    <t>['4185']</t>
+  </si>
+  <si>
+    <t>['5677043']</t>
+  </si>
+  <si>
     <t>['5809910']</t>
   </si>
   <si>
-    <t>['5751422']</t>
+    <t>['5846437']</t>
+  </si>
+  <si>
+    <t>['5528035']</t>
+  </si>
+  <si>
+    <t>['5823970']</t>
+  </si>
+  <si>
+    <t>['5810480']</t>
+  </si>
+  <si>
+    <t>['5814517']</t>
+  </si>
+  <si>
+    <t>['5751383']</t>
+  </si>
+  <si>
+    <t>['3762']</t>
+  </si>
+  <si>
+    <t>['5697463']</t>
   </si>
   <si>
     <t>['5809912']</t>
   </si>
   <si>
-    <t>['5751383']</t>
+    <t>['5846436']</t>
+  </si>
+  <si>
+    <t>['5849033']</t>
   </si>
   <si>
     <t>['5809911']</t>
   </si>
   <si>
+    <t>['5528034']</t>
+  </si>
+  <si>
+    <t>['5820270']</t>
+  </si>
+  <si>
+    <t>['5614842']</t>
+  </si>
+  <si>
+    <t>['5810479']</t>
+  </si>
+  <si>
+    <t>['5814516', '5814517']</t>
+  </si>
+  <si>
+    <t>['5751383', '5751422']</t>
+  </si>
+  <si>
+    <t>['3762', '4185']</t>
+  </si>
+  <si>
+    <t>['5697463', '5677043']</t>
+  </si>
+  <si>
     <t>['5809910', '5809912']</t>
   </si>
   <si>
-    <t>['5751422', '5751383']</t>
+    <t>['5846436', '5846437']</t>
+  </si>
+  <si>
+    <t>['5849033', '5751422']</t>
   </si>
   <si>
     <t>['5809910', '5809911']</t>
+  </si>
+  <si>
+    <t>['5528035', '5528034']</t>
+  </si>
+  <si>
+    <t>['5823970', '5820270']</t>
+  </si>
+  <si>
+    <t>['5614842', '4185']</t>
+  </si>
+  <si>
+    <t>['5810479', '5810480']</t>
   </si>
 </sst>
 </file>
@@ -425,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,101 +555,623 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>7458</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>3272</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>1522</v>
+        <v>148</v>
       </c>
       <c r="G2">
-        <v>0.009780422447418984</v>
+        <v>0.002283809641380162</v>
       </c>
       <c r="H2">
-        <v>0.2040761598283722</v>
+        <v>0.8087431693989071</v>
       </c>
       <c r="I2">
-        <v>9.705904573353241</v>
+        <v>308.2928961748634</v>
       </c>
       <c r="J2">
-        <v>0.183050179376365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.806119874540565</v>
+      </c>
+      <c r="K2">
+        <v>3833.911456123425</v>
+      </c>
+      <c r="L2">
+        <v>0.002475637320134594</v>
+      </c>
+      <c r="M2">
+        <v>2457.869999999994</v>
+      </c>
+      <c r="N2">
+        <v>1376.04145612343</v>
+      </c>
+      <c r="O2">
+        <v>1846.125882352937</v>
+      </c>
+      <c r="P2">
+        <v>-470.0844262295072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>3457</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>2912</v>
+        <v>595</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>1041</v>
+        <v>175</v>
       </c>
       <c r="G3">
-        <v>0.006689500504443602</v>
+        <v>0.002700450589469786</v>
       </c>
       <c r="H3">
-        <v>0.3011281457911484</v>
+        <v>0.2936241610738255</v>
       </c>
       <c r="I3">
-        <v>16.09225915644957</v>
+        <v>31.97986577181208</v>
       </c>
       <c r="J3">
-        <v>0.2824155372715136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.2844426290696282</v>
+      </c>
+      <c r="K3">
+        <v>3720.919621002738</v>
+      </c>
+      <c r="L3">
+        <v>0.002402676114040882</v>
+      </c>
+      <c r="M3">
+        <v>6551.999999999936</v>
+      </c>
+      <c r="N3">
+        <v>-2831.080378997198</v>
+      </c>
+      <c r="O3">
+        <v>1797.094117647053</v>
+      </c>
+      <c r="P3">
+        <v>-4628.17449664425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>7458</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>1815</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>0.001357940867847664</v>
+      </c>
+      <c r="H4">
+        <v>0.3859649122807017</v>
+      </c>
+      <c r="I4">
+        <v>170.1501372478816</v>
+      </c>
+      <c r="J4">
+        <v>0.3836965337855471</v>
+      </c>
+      <c r="K4">
+        <v>3394.591571786598</v>
+      </c>
+      <c r="L4">
+        <v>0.002191959224386092</v>
+      </c>
+      <c r="M4">
+        <v>4402.789999999985</v>
+      </c>
+      <c r="N4">
+        <v>-1008.198428213386</v>
+      </c>
+      <c r="O4">
+        <v>1695.269115646253</v>
+      </c>
+      <c r="P4">
+        <v>-2703.46754385964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>447</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>129</v>
+      </c>
+      <c r="G5">
+        <v>0.001990617863094871</v>
+      </c>
+      <c r="H5">
+        <v>0.2885906040268457</v>
+      </c>
+      <c r="I5">
+        <v>95.41747705793728</v>
+      </c>
+      <c r="J5">
+        <v>0.2855660993666395</v>
+      </c>
+      <c r="K5">
+        <v>3277.924542528417</v>
+      </c>
+      <c r="L5">
+        <v>0.002116624868085431</v>
+      </c>
+      <c r="M5">
+        <v>5928.47999999998</v>
+      </c>
+      <c r="N5">
+        <v>-2650.555457471562</v>
+      </c>
+      <c r="O5">
+        <v>1567.020918367349</v>
+      </c>
+      <c r="P5">
+        <v>-4217.576375838911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1642</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>466</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>231</v>
+      </c>
+      <c r="G6">
+        <v>0.003564594778100117</v>
+      </c>
+      <c r="H6">
+        <v>0.1406820950060901</v>
+      </c>
+      <c r="I6">
+        <v>19.56386799307868</v>
+      </c>
+      <c r="J6">
+        <v>0.1334911808649877</v>
+      </c>
+      <c r="K6">
+        <v>2404.782979591476</v>
+      </c>
+      <c r="L6">
+        <v>0.001552818983754191</v>
+      </c>
+      <c r="M6">
+        <v>8558.509999999751</v>
+      </c>
+      <c r="N6">
+        <v>-6153.727020408275</v>
+      </c>
+      <c r="O6">
+        <v>1200.753862660939</v>
+      </c>
+      <c r="P6">
+        <v>-7354.480883069214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0.0003394852169619159</v>
+      </c>
+      <c r="H7">
+        <v>0.08870967741935484</v>
+      </c>
+      <c r="I7">
+        <v>147.4036393713813</v>
+      </c>
+      <c r="J7">
+        <v>0.08810786271655872</v>
+      </c>
+      <c r="K7">
+        <v>1985.764991728698</v>
+      </c>
+      <c r="L7">
+        <v>0.001282250249856075</v>
+      </c>
+      <c r="M7">
+        <v>11234.77999999996</v>
+      </c>
+      <c r="N7">
+        <v>-9249.015008271261</v>
+      </c>
+      <c r="O7">
+        <v>989.1312820512821</v>
+      </c>
+      <c r="P7">
+        <v>-10238.14629032254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
-        <v>985</v>
-      </c>
-      <c r="G4">
-        <v>0.00632964264829678</v>
-      </c>
-      <c r="H4">
-        <v>0.1320729418074551</v>
-      </c>
-      <c r="I4">
-        <v>11.32385398636404</v>
-      </c>
-      <c r="J4">
-        <v>0.1204096916484108</v>
+      <c r="B8">
+        <v>596</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>465</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>93</v>
+      </c>
+      <c r="G8">
+        <v>0.001435096598975372</v>
+      </c>
+      <c r="H8">
+        <v>0.1560402684563758</v>
+      </c>
+      <c r="I8">
+        <v>21.74630872483221</v>
+      </c>
+      <c r="J8">
+        <v>0.148864785461499</v>
+      </c>
+      <c r="K8">
+        <v>1973.919838926166</v>
+      </c>
+      <c r="L8">
+        <v>0.001274601585384753</v>
+      </c>
+      <c r="M8">
+        <v>6551.999999999936</v>
+      </c>
+      <c r="N8">
+        <v>-4578.08016107377</v>
+      </c>
+      <c r="O8">
+        <v>951.5440000000017</v>
+      </c>
+      <c r="P8">
+        <v>-5529.624161073772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1642</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>161</v>
+      </c>
+      <c r="G9">
+        <v>0.002484414542312203</v>
+      </c>
+      <c r="H9">
+        <v>0.09805115712545676</v>
+      </c>
+      <c r="I9">
+        <v>23.53373031984482</v>
+      </c>
+      <c r="J9">
+        <v>0.09388474764456052</v>
+      </c>
+      <c r="K9">
+        <v>1678.601956917918</v>
+      </c>
+      <c r="L9">
+        <v>0.00108390861337179</v>
+      </c>
+      <c r="M9">
+        <v>8558.509999999751</v>
+      </c>
+      <c r="N9">
+        <v>-6879.908043081833</v>
+      </c>
+      <c r="O9">
+        <v>839.4301481481493</v>
+      </c>
+      <c r="P9">
+        <v>-7719.338191229983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>493</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>205</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <v>0.001296216282945497</v>
+      </c>
+      <c r="H10">
+        <v>0.1703853955375254</v>
+      </c>
+      <c r="I10">
+        <v>53.86173254835997</v>
+      </c>
+      <c r="J10">
+        <v>0.1672220105612893</v>
+      </c>
+      <c r="K10">
+        <v>1589.509588086876</v>
+      </c>
+      <c r="L10">
+        <v>0.001026379795676992</v>
+      </c>
+      <c r="M10">
+        <v>4648.630000000016</v>
+      </c>
+      <c r="N10">
+        <v>-3059.120411913139</v>
+      </c>
+      <c r="O10">
+        <v>797.450926829267</v>
+      </c>
+      <c r="P10">
+        <v>-3856.571338742407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>0.0004012098018640825</v>
+      </c>
+      <c r="H11">
+        <v>0.208</v>
+      </c>
+      <c r="I11">
+        <v>118.2388771929825</v>
+      </c>
+      <c r="J11">
+        <v>0.2062408493302882</v>
+      </c>
+      <c r="K11">
+        <v>1391.193330526314</v>
+      </c>
+      <c r="L11">
+        <v>0.0008983228141777955</v>
+      </c>
+      <c r="M11">
+        <v>3348.889999999995</v>
+      </c>
+      <c r="N11">
+        <v>-1957.696669473681</v>
+      </c>
+      <c r="O11">
+        <v>694.6242105263149</v>
+      </c>
+      <c r="P11">
+        <v>-2652.320879999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>0.0005246589716684155</v>
+      </c>
+      <c r="H12">
+        <v>0.1491228070175439</v>
+      </c>
+      <c r="I12">
+        <v>103.9113374834937</v>
+      </c>
+      <c r="J12">
+        <v>0.1476877104185685</v>
+      </c>
+      <c r="K12">
+        <v>1215.984360498016</v>
+      </c>
+      <c r="L12">
+        <v>0.000785186694580767</v>
+      </c>
+      <c r="M12">
+        <v>4402.789999999985</v>
+      </c>
+      <c r="N12">
+        <v>-3186.805639501968</v>
+      </c>
+      <c r="O12">
+        <v>559.4279569892464</v>
+      </c>
+      <c r="P12">
+        <v>-3746.233596491215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>0.0004166409480896241</v>
+      </c>
+      <c r="H13">
+        <v>0.1551724137931035</v>
+      </c>
+      <c r="I13">
+        <v>147.8793103448276</v>
+      </c>
+      <c r="J13">
+        <v>0.1541230958497666</v>
+      </c>
+      <c r="K13">
+        <v>1202.902484787018</v>
+      </c>
+      <c r="L13">
+        <v>0.000776739452097954</v>
+      </c>
+      <c r="M13">
+        <v>3925.419999999995</v>
+      </c>
+      <c r="N13">
+        <v>-2722.517515212977</v>
+      </c>
+      <c r="O13">
+        <v>593.7855882352947</v>
+      </c>
+      <c r="P13">
+        <v>-3316.303103448271</v>
       </c>
     </row>
   </sheetData>

--- a/fp_groth_out.xlsx
+++ b/fp_groth_out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>antecedent</t>
   </si>
@@ -52,55 +52,67 @@
     <t>improvement</t>
   </si>
   <si>
-    <t>['1515966223523303310']</t>
-  </si>
-  <si>
-    <t>['1515966223523303301']</t>
-  </si>
-  <si>
-    <t>['1515966223523303314']</t>
-  </si>
-  <si>
-    <t>['1515966223523303310', '1515966223523303314']</t>
-  </si>
-  <si>
-    <t>['1515966223523303308']</t>
-  </si>
-  <si>
-    <t>['1515966223523303321']</t>
-  </si>
-  <si>
-    <t>['1515966223523303312']</t>
+    <t>profit_associated</t>
+  </si>
+  <si>
+    <t>perc_of_total_profit</t>
+  </si>
+  <si>
+    <t>profit_associated_prev</t>
+  </si>
+  <si>
+    <t>net_change</t>
+  </si>
+  <si>
+    <t>profit_last_item</t>
+  </si>
+  <si>
+    <t>loss_by_change</t>
   </si>
   <si>
     <t>['2273948218662322995']</t>
   </si>
   <si>
-    <t>['1515966223523303301', '1515966223523303321']</t>
-  </si>
-  <si>
-    <t>['1515966223523303310', '1515966223523303312']</t>
-  </si>
-  <si>
-    <t>['1515966223523303314', '1515966223523303312']</t>
-  </si>
-  <si>
-    <t>['1515966223523303310', '1515966223523303314', '1515966223523303312']</t>
-  </si>
-  <si>
-    <t>['1515966223523303310', '1515966223523303308']</t>
-  </si>
-  <si>
-    <t>['1515966223523303314', '1515966223523303301']</t>
-  </si>
-  <si>
-    <t>['1515966223523303314', '1515966223523303308']</t>
-  </si>
-  <si>
-    <t>['1515966223523303310', '2273948218662322995']</t>
-  </si>
-  <si>
-    <t>['1515966223523303310', '1515966223523303301']</t>
+    <t>['2273948218662322995', '2273948218662322996']</t>
+  </si>
+  <si>
+    <t>['1515966223509117074']</t>
+  </si>
+  <si>
+    <t>['2273948297037087396']</t>
+  </si>
+  <si>
+    <t>['2273948218662322996']</t>
+  </si>
+  <si>
+    <t>['2273948186248741817']</t>
+  </si>
+  <si>
+    <t>['1515966223509088532']</t>
+  </si>
+  <si>
+    <t>['1515966223509088567']</t>
+  </si>
+  <si>
+    <t>['2273948316473492113']</t>
+  </si>
+  <si>
+    <t>['2273948218662322995', '2273948218662322996', '2273948186248741817']</t>
+  </si>
+  <si>
+    <t>['2273948218662322995', '2273948186248741817']</t>
+  </si>
+  <si>
+    <t>['1515966223509117074', '1515966223509088532']</t>
+  </si>
+  <si>
+    <t>['1515966223509088567', '2273948297037087396']</t>
+  </si>
+  <si>
+    <t>['1515966223509117074', '2273948316473492113']</t>
+  </si>
+  <si>
+    <t>['2273948218662322996', '2273948186248741817']</t>
   </si>
 </sst>
 </file>
@@ -458,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,385 +513,415 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>38472</v>
+        <v>8692</v>
       </c>
       <c r="C2">
-        <v>0.02680478740526146</v>
+        <v>0.00613756419481188</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>36530</v>
+        <v>6132</v>
       </c>
       <c r="F2">
-        <v>0.02545172811172285</v>
+        <v>0.004329906079450811</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>26080</v>
+        <v>3863</v>
       </c>
       <c r="I2">
-        <v>0.01817084777316539</v>
+        <v>0.002727727851421801</v>
       </c>
       <c r="J2">
-        <v>0.677895612393429</v>
+        <v>0.444431661297745</v>
       </c>
       <c r="K2">
-        <v>26.63456129256686</v>
+        <v>102.6423329150167</v>
       </c>
       <c r="L2">
-        <v>0.6524438842817062</v>
+        <v>0.4401017552182942</v>
+      </c>
+      <c r="M2">
+        <v>1269768.099999865</v>
+      </c>
+      <c r="N2">
+        <v>0.003742907798826737</v>
+      </c>
+      <c r="O2">
+        <v>1605586.239999798</v>
+      </c>
+      <c r="P2">
+        <v>-335818.1399999333</v>
+      </c>
+      <c r="Q2">
+        <v>556194.7399999546</v>
+      </c>
+      <c r="R2">
+        <v>-892012.8799998879</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>41076</v>
+        <v>3863</v>
       </c>
       <c r="C3">
-        <v>0.02861908524273549</v>
+        <v>0.002727727851421801</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>31652</v>
+        <v>3062</v>
       </c>
       <c r="F3">
-        <v>0.02205305497378186</v>
+        <v>0.002162128573920154</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>1007</v>
+      </c>
+      <c r="I3">
+        <v>0.000711059266472108</v>
+      </c>
+      <c r="J3">
+        <v>0.2606782293554232</v>
+      </c>
+      <c r="K3">
+        <v>120.5655540099485</v>
+      </c>
+      <c r="L3">
+        <v>0.2585161007815031</v>
+      </c>
+      <c r="M3">
+        <v>428881.2999999705</v>
+      </c>
+      <c r="N3">
+        <v>0.001264217586298639</v>
+      </c>
+      <c r="O3">
+        <v>1269768.099999865</v>
+      </c>
+      <c r="P3">
+        <v>-840886.7999998946</v>
+      </c>
+      <c r="Q3">
+        <v>97880.40000000565</v>
+      </c>
+      <c r="R3">
+        <v>-938767.1999999002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>8692</v>
+      </c>
+      <c r="C4">
+        <v>0.00613756419481188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3062</v>
+      </c>
+      <c r="F4">
+        <v>0.002162128573920154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>1386</v>
+      </c>
+      <c r="I4">
+        <v>0.0009786774015197038</v>
+      </c>
+      <c r="J4">
+        <v>0.1594569719282098</v>
+      </c>
+      <c r="K4">
+        <v>73.74999519066461</v>
+      </c>
+      <c r="L4">
+        <v>0.1572948433542897</v>
+      </c>
+      <c r="M4">
+        <v>390741.1199999757</v>
+      </c>
+      <c r="N4">
+        <v>0.001151791406139718</v>
+      </c>
+      <c r="O4">
+        <v>1605586.239999798</v>
+      </c>
+      <c r="P4">
+        <v>-1214845.119999823</v>
+      </c>
+      <c r="Q4">
+        <v>134719.2000000078</v>
+      </c>
+      <c r="R4">
+        <v>-1349564.319999831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>19844</v>
-      </c>
-      <c r="I3">
-        <v>0.01382600855869226</v>
-      </c>
-      <c r="J3">
-        <v>0.4831044892394586</v>
-      </c>
-      <c r="K3">
-        <v>21.90646555834578</v>
-      </c>
-      <c r="L3">
-        <v>0.4610514342656767</v>
+      <c r="B5">
+        <v>14284</v>
+      </c>
+      <c r="C5">
+        <v>0.01008616739055372</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>6466</v>
+      </c>
+      <c r="F5">
+        <v>0.004565748974189325</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>1001</v>
+      </c>
+      <c r="I5">
+        <v>0.0007068225677642306</v>
+      </c>
+      <c r="J5">
+        <v>0.0700784094091291</v>
+      </c>
+      <c r="K5">
+        <v>15.34872149241887</v>
+      </c>
+      <c r="L5">
+        <v>0.06551266043493978</v>
+      </c>
+      <c r="M5">
+        <v>331489.406301974</v>
+      </c>
+      <c r="N5">
+        <v>0.0009771345524243642</v>
+      </c>
+      <c r="O5">
+        <v>429549.9500000839</v>
+      </c>
+      <c r="P5">
+        <v>-98060.54369810992</v>
+      </c>
+      <c r="Q5">
+        <v>301387.2290441972</v>
+      </c>
+      <c r="R5">
+        <v>-399447.7727423071</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>38472</v>
-      </c>
-      <c r="C4">
-        <v>0.02680478740526146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>15994</v>
-      </c>
-      <c r="F4">
-        <v>0.01114357896027635</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>12109</v>
-      </c>
-      <c r="I4">
-        <v>0.008436763638238486</v>
-      </c>
-      <c r="J4">
-        <v>0.3147483884383448</v>
-      </c>
-      <c r="K4">
-        <v>28.24482058774224</v>
-      </c>
-      <c r="L4">
-        <v>0.3036048094780684</v>
+      <c r="B6">
+        <v>7105</v>
+      </c>
+      <c r="C6">
+        <v>0.00501695738657828</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>4336</v>
+      </c>
+      <c r="F6">
+        <v>0.003061720932892811</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>359</v>
+      </c>
+      <c r="I6">
+        <v>0.0002534958060213374</v>
+      </c>
+      <c r="J6">
+        <v>0.05052779732582689</v>
+      </c>
+      <c r="K6">
+        <v>16.50307080014854</v>
+      </c>
+      <c r="L6">
+        <v>0.04746607639293408</v>
+      </c>
+      <c r="M6">
+        <v>324912.949999996</v>
+      </c>
+      <c r="N6">
+        <v>0.0009577490681132373</v>
+      </c>
+      <c r="O6">
+        <v>346866.1000000398</v>
+      </c>
+      <c r="P6">
+        <v>-21953.15000004385</v>
+      </c>
+      <c r="Q6">
+        <v>307386.569999994</v>
+      </c>
+      <c r="R6">
+        <v>-329339.7200000378</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>36530</v>
-      </c>
-      <c r="C5">
-        <v>0.02545172811172285</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>15994</v>
-      </c>
-      <c r="F5">
-        <v>0.01114357896027635</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>14284</v>
+      </c>
+      <c r="C7">
+        <v>0.01008616739055372</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>8968</v>
+      </c>
+      <c r="F7">
+        <v>0.006332452335374245</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>1605</v>
+      </c>
+      <c r="I7">
+        <v>0.001133316904357233</v>
+      </c>
+      <c r="J7">
+        <v>0.1123634836180342</v>
+      </c>
+      <c r="K7">
+        <v>17.7440709644747</v>
+      </c>
+      <c r="L7">
+        <v>0.1060310312826599</v>
+      </c>
+      <c r="M7">
+        <v>308320.7736462016</v>
+      </c>
+      <c r="N7">
+        <v>0.0009088401482292585</v>
+      </c>
+      <c r="O7">
+        <v>429549.9500000839</v>
+      </c>
+      <c r="P7">
+        <v>-121229.1763538823</v>
+      </c>
+      <c r="Q7">
+        <v>260055.0448762398</v>
+      </c>
+      <c r="R7">
+        <v>-381284.2212301221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="H5">
-        <v>10401</v>
-      </c>
-      <c r="I5">
-        <v>0.007246740325486704</v>
-      </c>
-      <c r="J5">
-        <v>0.284724883657268</v>
-      </c>
-      <c r="K5">
-        <v>25.55057802095988</v>
-      </c>
-      <c r="L5">
-        <v>0.2735813046969917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>26080</v>
-      </c>
-      <c r="C6">
-        <v>0.01817084777316539</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>15994</v>
-      </c>
-      <c r="F6">
-        <v>0.01114357896027635</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B8">
+        <v>6132</v>
+      </c>
+      <c r="C8">
+        <v>0.004329906079450811</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="H6">
-        <v>9031</v>
-      </c>
-      <c r="I6">
-        <v>0.006292213429427019</v>
-      </c>
-      <c r="J6">
-        <v>0.3462806748466258</v>
-      </c>
-      <c r="K6">
-        <v>31.07445786322478</v>
-      </c>
-      <c r="L6">
-        <v>0.3351370958863494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>38786</v>
-      </c>
-      <c r="C7">
-        <v>0.0270235621828985</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>38472</v>
-      </c>
-      <c r="F7">
-        <v>0.02680478740526146</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>8726</v>
-      </c>
-      <c r="I7">
-        <v>0.00607970926643563</v>
-      </c>
-      <c r="J7">
-        <v>0.2249780848759862</v>
-      </c>
-      <c r="K7">
-        <v>8.393205343304668</v>
-      </c>
-      <c r="L7">
-        <v>0.1981732974707247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>41076</v>
-      </c>
-      <c r="C8">
-        <v>0.02861908524273549</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>36530</v>
+        <v>3062</v>
       </c>
       <c r="F8">
-        <v>0.02545172811172285</v>
+        <v>0.002162128573920154</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>8304</v>
+        <v>1208</v>
       </c>
       <c r="I8">
-        <v>0.005785687113050822</v>
+        <v>0.0008529886731860045</v>
       </c>
       <c r="J8">
-        <v>0.2021618463336255</v>
+        <v>0.1969993476842792</v>
       </c>
       <c r="K8">
-        <v>7.94295167095202</v>
+        <v>91.11361371405393</v>
       </c>
       <c r="L8">
-        <v>0.1767101182219026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>38786</v>
-      </c>
-      <c r="C9">
-        <v>0.0270235621828985</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>36530</v>
-      </c>
-      <c r="F9">
-        <v>0.02545172811172285</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>8276</v>
-      </c>
-      <c r="I9">
-        <v>0.005766178534153251</v>
-      </c>
-      <c r="J9">
-        <v>0.2133759603980818</v>
-      </c>
-      <c r="K9">
-        <v>8.383554918606988</v>
-      </c>
-      <c r="L9">
-        <v>0.187924232286359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>38472</v>
-      </c>
-      <c r="C10">
-        <v>0.02680478740526146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>8692</v>
-      </c>
-      <c r="F10">
-        <v>0.006056020277774295</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>8229</v>
-      </c>
-      <c r="I10">
-        <v>0.005733431991003758</v>
-      </c>
-      <c r="J10">
-        <v>0.2138958203368684</v>
-      </c>
-      <c r="K10">
-        <v>35.31953502894796</v>
-      </c>
-      <c r="L10">
-        <v>0.2078398000590941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>41076</v>
-      </c>
-      <c r="C11">
-        <v>0.02861908524273549</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>38472</v>
-      </c>
-      <c r="F11">
-        <v>0.02680478740526146</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11">
-        <v>8219</v>
-      </c>
-      <c r="I11">
-        <v>0.005726464641397483</v>
-      </c>
-      <c r="J11">
-        <v>0.2000925114422047</v>
-      </c>
-      <c r="K11">
-        <v>7.464805014753778</v>
-      </c>
-      <c r="L11">
-        <v>0.1732877240369432</v>
+        <v>0.194837219110359</v>
+      </c>
+      <c r="M8">
+        <v>291345.4399999926</v>
+      </c>
+      <c r="N8">
+        <v>0.0008588017918615969</v>
+      </c>
+      <c r="O8">
+        <v>882885.3599999279</v>
+      </c>
+      <c r="P8">
+        <v>-591539.9199999353</v>
+      </c>
+      <c r="Q8">
+        <v>117417.6000000068</v>
+      </c>
+      <c r="R8">
+        <v>-708957.519999942</v>
       </c>
     </row>
   </sheetData>
